--- a/DbLayouts/L5-管理性作業/PfReward.xlsx
+++ b/DbLayouts/L5-管理性作業/PfReward.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,47 +92,47 @@
   </si>
   <si>
     <t>額度編號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>介紹人員編</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>協辦人員編</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>晤談一員編</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>晤談二員編</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BormNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>WorkSeason</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PerfDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DecimalD</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>WorkMonth,CustNo,FacmNo,BormNo,PerfDate</t>
@@ -143,43 +143,43 @@
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>findFacmNoRange</t>
@@ -202,19 +202,19 @@
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>InterviewerA</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>InterviewerB</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Coorgnizer</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>findByCustNoAndFacmNo</t>
@@ -222,39 +222,39 @@
   </si>
   <si>
     <t>介紹人介紹獎金</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>介紹人加碼獎勵津貼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>協辦人員協辦獎金</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CoorgnizerBonus</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>IntroducerAddBonus</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CoorgnizerBonusDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>IntroducerAddBonusDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>IntroducerBonus</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>IntroducerBonusDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Introducer=</t>
@@ -262,7 +262,7 @@
   </si>
   <si>
     <t>WorkMonth</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>findByWorkMonth</t>
@@ -302,23 +302,23 @@
   </si>
   <si>
     <t>業績日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>戶號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Introducer</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>工作月</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>工作季</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo ASC</t>
@@ -334,15 +334,15 @@
   </si>
   <si>
     <t>介紹獎金轉檔日</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>獎勵津貼轉檔日</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>協辦獎金轉檔日</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PfReward</t>
@@ -350,7 +350,7 @@
   </si>
   <si>
     <t>撥款序號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>介紹、協辦獎金明細檔</t>
@@ -367,19 +367,19 @@
   </si>
   <si>
     <t>LogNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>計件代碼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PieceCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">PerfDate &gt;= , AND PerfDate&lt;= </t>
@@ -387,15 +387,15 @@
   </si>
   <si>
     <t>還款類別</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ProdCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>商品代碼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FacMain.ProdNo 商品代碼</t>
@@ -427,11 +427,11 @@
   </si>
   <si>
     <t>0.撥款(計件代碼變更) 2.部分償還 3.提前結案</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RepayType</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.撥貸(計件代碼變更)，為撥款日期
@@ -455,7 +455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -515,13 +515,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="思源宋體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -533,26 +526,6 @@
       <color rgb="FF000000"/>
       <name val="標楷體"/>
       <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="思源宋體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -652,7 +625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,12 +683,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -725,44 +713,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -778,6 +730,21 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1086,11 +1053,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" style="16" customWidth="1"/>
@@ -1101,11 +1068,11 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="3" t="s">
         <v>83</v>
       </c>
@@ -1116,9 +1083,9 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1129,11 +1096,11 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="12" t="s">
         <v>88</v>
       </c>
@@ -1144,22 +1111,22 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1168,11 +1135,11 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1181,18 +1148,18 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1215,456 +1182,456 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
-      <c r="A9" s="19">
+    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="32.4">
-      <c r="A10" s="19">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="35">
         <v>2</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>8</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="68.400000000000006" customHeight="1">
-      <c r="A11" s="19">
+    <row r="11" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35">
         <v>3</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="19">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="35">
         <v>4</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="19">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="35">
         <v>5</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>3</v>
       </c>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="31">
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="38">
         <v>6</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="28">
         <v>1</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36" t="s">
+      <c r="F14" s="29"/>
+      <c r="G14" s="39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="31">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="38">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="28">
         <v>1</v>
       </c>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="31">
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="38">
         <v>8</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="28">
         <v>5</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="19">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="35">
         <v>9</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="19">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="35">
         <v>10</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="35">
         <v>11</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="19">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="35">
         <v>12</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="19">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="35">
         <v>13</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>16</v>
       </c>
       <c r="F21" s="16">
         <v>2</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="19">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="35">
         <v>14</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>8</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="19">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="35">
         <v>15</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>16</v>
       </c>
       <c r="F23" s="16">
         <v>2</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32.4">
-      <c r="A24" s="19">
+    <row r="24" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="35">
         <v>16</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>8</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="19">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="35">
         <v>17</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>16</v>
       </c>
       <c r="F25" s="16">
         <v>2</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="19">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="35">
         <v>18</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>8</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="19">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="35">
         <v>19</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="19">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="35">
         <v>20</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="19">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="35">
         <v>21</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="23"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="19">
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="35">
         <v>22</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="19">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="35">
         <v>23</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="23"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="19">
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="35">
         <v>24</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="19"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="23"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="35"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1691,7 +1658,7 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="92.6640625" style="1" customWidth="1"/>
@@ -1699,7 +1666,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1710,7 +1677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1721,7 +1688,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -1732,7 +1699,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -1740,7 +1707,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -1751,7 +1718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>63</v>
       </c>
@@ -1762,7 +1729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
@@ -1773,7 +1740,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -1784,15 +1751,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.2" customHeight="1">
+    <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>100</v>
       </c>

--- a/DbLayouts/L5-管理性作業/PfReward.xlsx
+++ b/DbLayouts/L5-管理性作業/PfReward.xlsx
@@ -245,15 +245,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>IntroducerAddBonusDate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>IntroducerBonus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>IntroducerBonusDate</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -345,10 +337,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>PfReward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>撥款序號</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -449,6 +437,18 @@
   <si>
     <t>暫不用</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PfReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntroducerBonusDate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntroducerAddBonusDate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -719,6 +719,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -730,21 +745,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1069,23 +1069,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1097,12 +1097,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1112,10 +1112,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1123,10 +1123,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1136,10 +1136,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1149,10 +1149,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1183,31 +1183,31 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35">
+      <c r="A9" s="31">
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="36" t="s">
         <v>86</v>
       </c>
+      <c r="C9" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="D9" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:7" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="35">
+      <c r="A10" s="31">
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>29</v>
@@ -1217,18 +1217,18 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35">
+      <c r="A11" s="31">
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>26</v>
@@ -1238,7 +1238,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="35">
+      <c r="A12" s="31">
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -1255,14 +1255,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="35">
+      <c r="A13" s="31">
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>26</v>
@@ -1273,35 +1273,35 @@
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="38">
+      <c r="A14" s="34">
         <v>6</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E14" s="28">
         <v>1</v>
       </c>
       <c r="F14" s="29"/>
-      <c r="G14" s="39" t="s">
-        <v>104</v>
+      <c r="G14" s="35" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="38">
+      <c r="A15" s="34">
         <v>7</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>37</v>
@@ -1312,14 +1312,14 @@
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="38">
+      <c r="A16" s="34">
         <v>8</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>37</v>
@@ -1328,15 +1328,15 @@
         <v>5</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="35">
+      <c r="A17" s="31">
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>20</v>
@@ -1349,7 +1349,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="35">
+      <c r="A18" s="31">
         <v>10</v>
       </c>
       <c r="B18" s="25" t="s">
@@ -1366,7 +1366,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="35">
+      <c r="A19" s="31">
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -1383,7 +1383,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="35">
+      <c r="A20" s="31">
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -1400,11 +1400,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="35">
+      <c r="A21" s="31">
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>52</v>
@@ -1419,18 +1419,18 @@
         <v>2</v>
       </c>
       <c r="G21" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="31">
+        <v>14</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="35">
-        <v>14</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>80</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>29</v>
@@ -1439,11 +1439,11 @@
         <v>8</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="35">
+      <c r="A23" s="31">
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
@@ -1462,18 +1462,18 @@
         <v>2</v>
       </c>
       <c r="G23" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="31">
+        <v>16</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="35">
-        <v>16</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>29</v>
@@ -1482,11 +1482,11 @@
         <v>8</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="35">
+      <c r="A25" s="31">
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -1505,18 +1505,18 @@
         <v>2</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="35">
+      <c r="A26" s="31">
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>29</v>
@@ -1525,18 +1525,18 @@
         <v>8</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="35">
+      <c r="A27" s="31">
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>26</v>
@@ -1546,14 +1546,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="35">
+      <c r="A28" s="31">
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>26</v>
@@ -1563,7 +1563,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="35">
+      <c r="A29" s="31">
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -1578,7 +1578,7 @@
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="35">
+      <c r="A30" s="31">
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
@@ -1595,7 +1595,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="35">
+      <c r="A31" s="31">
         <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -1610,7 +1610,7 @@
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="35">
+      <c r="A32" s="31">
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
@@ -1627,7 +1627,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
       <c r="D33" s="20"/>
@@ -1696,7 +1696,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1704,70 +1704,70 @@
         <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
